--- a/biology/Zoologie/Iona_(genre)/Iona_(genre).xlsx
+++ b/biology/Zoologie/Iona_(genre)/Iona_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iona est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iona est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 10/08/2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 10/08/2021) :
 Iona minuta (Berland, 1929)
 Iona nigrovittata (Keyserling, 1882)
 Iona nitens (Berry, Beatty &amp; Prószyński, 1997)
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peckham &amp; Peckham, 1886 : Genera of the family Attidae: with a partial synonymy. Transactions of the Wisconsin Academy of Sciences, Arts, and Letters, vol. 6, p. 255-342 (texte intégral).
 Keyserling, 1882 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 1325-1420 (texte intégral).</t>
